--- a/biology/Médecine/Classe_ATC_D08/Classe_ATC_D08.xlsx
+++ b/biology/Médecine/Classe_ATC_D08/Classe_ATC_D08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC D08, dénommée « Antiseptiques et désinfectants », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD08[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC D08, dénommée « Antiseptiques et désinfectants », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QD08. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique D de la classification, intitulé « Dermatologie ».
 </t>
         </is>
       </c>
@@ -513,45 +525,287 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>D08AA Dérivés de l'acridine
-D08AA01 Lactate d'éthacridine (en)
+          <t>D08AA Dérivés de l'acridine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D08AA01 Lactate d'éthacridine (en)
 D08AA02 9-Aminoacridine
 D08AA03 Euflavine (en)
-QD08AA99 Dérivés de l'Acridine, associations
-D08AB Dérivés de l'aluminium
-Classe vide.
-D08AC Biguanides et amidines
-D08AC01 Dibrompropamidine (en)
+QD08AA99 Dérivés de l'Acridine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D08</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>D08A Antiseptiques et désinfectants</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D08AB Dérivés de l'aluminium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Classe vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D08</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>D08A Antiseptiques et désinfectants</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>D08AC Biguanides et amidines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D08AC01 Dibrompropamidine (en)
 D08AC02 Chlorhexidine
 D08AC03 Propamidine (en)
 D08AC04 Hexamidine
 D08AC05 Polihexanide
 D08AC52 Chlorhexidine, associations
-QD08AC54 Hexamidine, associations
-D08AD Dérivés de l'acide borique
-D08AE Phénol et dérivés
-D08AE01 Hexachlorophène
+QD08AC54 Hexamidine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D08</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>D08A Antiseptiques et désinfectants</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D08AE Phénol et dérivés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D08AE01 Hexachlorophène
 D08AE02 Policrésulène (en)
 D08AE03 Phénol
 D08AE04 Triclosan
 D08AE05 Chloroxylénol
 D08AE06 Biphénylol
-QD08AE99 Phénol et dérivés, associations
-D08AF Dérivés du nitrofurane
-D08AF01 Nitrofural (en)
-D08AG Dérivés de l'iode
-D08AG01 Iode/octylphénoxypolyglycoléther
+QD08AE99 Phénol et dérivés, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D08</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>D08A Antiseptiques et désinfectants</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D08AF Dérivés du nitrofurane</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>D08AF01 Nitrofural (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D08</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>D08A Antiseptiques et désinfectants</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>D08AG Dérivés de l'iode</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>D08AG01 Iode/octylphénoxypolyglycoléther
 D08AG02 Povidone iodée
 D08AG03 Iode
 D08AG04 Diiodohydroxypropane (en)
-« QD08AG53 » Iode en association
-D08AH Dérivés de la quinoline
-D08AH01 Déqualinium (en)
+« QD08AG53 » Iode en association</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D08</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>D08A Antiseptiques et désinfectants</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>D08AH Dérivés de la quinoline</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>D08AH01 Déqualinium (en)
 D08AH02 Chlorquinaldol (en)
 D08AH03 Oxyquinoline
-D08AH30 Clioquinol (en)
-D08AJ Ammoniums quaternaires
-D08AJ01 Benzalkonium
+D08AH30 Clioquinol (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D08</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>D08A Antiseptiques et désinfectants</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>D08AJ Ammoniums quaternaires</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>D08AJ01 Benzalkonium
 D08AJ02 Cétrimonium (en)
 D08AJ03 Cétylpyridinium
 D08AJ04 Cétrimide (en)
@@ -561,21 +815,123 @@
 D08AJ10 Décaméthoxine
 D08AJ57 Octénidine (en), associations
 D08AJ58 Chlorure de benzéthonium, associations
-D08AJ59 Bromure de dodéclonium, associations
-D08AK Dérivés du mercure
-D08AK01 Amidochlorure mercurique (en)
+D08AJ59 Bromure de dodéclonium, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D08</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>D08A Antiseptiques et désinfectants</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>D08AK Dérivés du mercure</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>D08AK01 Amidochlorure mercurique (en)
 D08AK02 Borate de phénylmercure
 D08AK03 Chlorure mercurique
 D08AK04 Mercurochrome
 D08AK05 Mercure, métallique
 D08AK06 Thiomersal
 D08AK30 Iodure mercurique (en)
-« QD08AK52 » Borate de phénylmercure, associations
-D08AL Dérivés de l'argent
-D08AL01 Nitrate d'argent
-D08AL30 Argent
-D08AX Autres antiseptiques et désinfectants
-D08AX01 Peroxyde d'hydrogène
+« QD08AK52 » Borate de phénylmercure, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D08</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>D08A Antiseptiques et désinfectants</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>D08AL Dérivés de l'argent</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>D08AL01 Nitrate d'argent
+D08AL30 Argent</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_D08</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_D08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>D08A Antiseptiques et désinfectants</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>D08AX Autres antiseptiques et désinfectants</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>D08AX01 Peroxyde d'hydrogène
 D08AX02 Éosine
 D08AX03 Propanol
 D08AX04 Tosylchloramide sodium
